--- a/test/测试问题.xlsx
+++ b/test/测试问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>共享申请单增加分类全名字段，显示知识分类全名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息共享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1742,529 +1754,590 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="66.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
-    <col min="6" max="8" width="11.625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="32.25" style="10" customWidth="1"/>
-    <col min="10" max="10" width="23.25" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="54.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="10" customWidth="1"/>
+    <col min="8" max="10" width="11.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="32.25" style="10" customWidth="1"/>
+    <col min="12" max="12" width="23.25" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="11">
+      <c r="H2" s="11">
         <v>41853</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="11">
+      <c r="H3" s="11">
         <v>41853</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="11">
+      <c r="H4" s="11">
         <v>41853</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="10" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <v>41853</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="12" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="11">
+      <c r="H6" s="11">
         <v>41853</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="10" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="11">
+      <c r="H7" s="11">
         <v>41853</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="10" t="s">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="11">
+      <c r="H8" s="11">
         <v>41853</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="10" t="s">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="11">
+      <c r="H9" s="11">
         <v>41863</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="17" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="11">
+      <c r="H10" s="11">
         <v>41863</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="10" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="11">
+      <c r="H11" s="11">
         <v>41863</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="17" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="11">
+      <c r="H12" s="11">
         <v>41863</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="10" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="11">
+      <c r="H13" s="11">
         <v>41863</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="10" t="s">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="10" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H21" s="11"/>
-    </row>
-    <row r="24" spans="4:8" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="13" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="24" spans="5:10" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="10" t="s">
+    <row r="25" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="10" t="s">
+    <row r="26" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="H26" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="10" t="s">
+    <row r="27" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="H27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="10" t="s">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="10" t="s">
+    <row r="29" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="10" t="s">
+    <row r="30" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="10" t="s">
+    <row r="33" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="10" t="s">
+    <row r="34" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="10" t="s">
+    <row r="35" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="10" t="s">
+    <row r="36" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="10" t="s">
+    <row r="37" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="15" t="s">
+    <row r="39" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="11">
+      <c r="H39" s="11">
         <v>41844</v>
       </c>
     </row>
-    <row r="40" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="15" t="s">
+    <row r="40" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="11">
+      <c r="H40" s="11">
         <v>41844</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="4:7" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="16" t="s">
+    <row r="41" spans="5:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="11">
+      <c r="H41" s="11">
         <v>41844</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="15" t="s">
+    <row r="42" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="11">
+      <c r="H42" s="11">
         <v>41844</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="15" t="s">
+    <row r="43" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="11">
+      <c r="H43" s="11">
         <v>41844</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="I43" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="15" t="s">
+    <row r="44" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="11">
+      <c r="H44" s="11">
         <v>41844</v>
       </c>
     </row>
-    <row r="45" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="10" t="s">
+    <row r="45" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="11">
+      <c r="H45" s="11">
         <v>41844</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="10" t="s">
+    <row r="46" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="11">
+      <c r="H46" s="11">
         <v>41844</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="10" t="s">
+    <row r="48" spans="5:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="11">
+      <c r="H48" s="11">
         <v>41848</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="12" t="s">
+    <row r="49" spans="5:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="11">
+      <c r="H49" s="11">
         <v>41852</v>
       </c>
     </row>

--- a/test/测试问题.xlsx
+++ b/test/测试问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +590,10 @@
   </si>
   <si>
     <t>信息共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件列表重复显示文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1757,7 +1761,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2013,7 +2017,12 @@
       <c r="E14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="G14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="11">
+        <v>41867</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
@@ -2024,12 +2033,28 @@
       <c r="E15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="G15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="11">
+        <v>41867</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H16" s="11"/>
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="11">
+        <v>41868</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
